--- a/SRC/HARDWARE_INFO.xlsx
+++ b/SRC/HARDWARE_INFO.xlsx
@@ -6,7 +6,8 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="开源软件" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -24,19 +25,19 @@
     <t>软件描述</t>
   </si>
   <si>
-    <t xml:space="preserve">开源情况 &amp; 许可证</t>
-  </si>
-  <si>
     <t>官网</t>
-  </si>
-  <si>
-    <t>源码仓库</t>
   </si>
   <si>
     <t>支持平台</t>
   </si>
   <si>
     <t>能力声明</t>
+  </si>
+  <si>
+    <t>许可证</t>
+  </si>
+  <si>
+    <t>源码仓库</t>
   </si>
 </sst>
 </file>
@@ -606,7 +607,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
+    <col customWidth="1" min="2" max="2" style="1" width="32.00390625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="36.57421875"/>
+    <col customWidth="1" min="4" max="4" style="1" width="36.28125"/>
+    <col customWidth="1" min="5" max="5" style="1" width="36.8515625"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -630,19 +673,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/HARDWARE_INFO.xlsx
+++ b/SRC/HARDWARE_INFO.xlsx
@@ -17,34 +17,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>软件名称</t>
   </si>
   <si>
-    <t>软件描述</t>
-  </si>
-  <si>
     <t>官网</t>
   </si>
   <si>
     <t>支持平台</t>
   </si>
   <si>
-    <t>能力声明</t>
+    <t>CPU-Z</t>
+  </si>
+  <si>
+    <t>cpuid.com/softwares/cpu-z.html</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>GPU-Z</t>
+  </si>
+  <si>
+    <t>techpowerup.com/gpuz</t>
   </si>
   <si>
     <t>许可证</t>
   </si>
   <si>
     <t>源码仓库</t>
+  </si>
+  <si>
+    <t>HardInfo2</t>
+  </si>
+  <si>
+    <t>GPLv2+、LGPLv2.1、GPLv3</t>
+  </si>
+  <si>
+    <t>hardinfo2.org</t>
+  </si>
+  <si>
+    <t>github.com/hardinfo2/hardinfo2</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>CPU-X</t>
+  </si>
+  <si>
+    <t>GPLv3</t>
+  </si>
+  <si>
+    <t>thetumultuousunicornofdarkness.github.io/CPU-X</t>
+  </si>
+  <si>
+    <t>github.com/TheTumultuousUnicornOfDarkness/CPU-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libre Hardware Monitor
+(Fork of
+Open Hardware Monitor)</t>
+  </si>
+  <si>
+    <t>MPLv2</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>github.com/LibreHardwareMonitor/LibreHardwareMonitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Hardware Monitor</t>
+  </si>
+  <si>
+    <t>Undeclared</t>
+  </si>
+  <si>
+    <t>github.com/HardwareMonitor/OpenHardwareMonitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -59,6 +118,10 @@
     <font>
       <sz val="12.000000"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -76,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -99,15 +162,71 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF058731"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF058731"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF058731"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF058731"/>
+      </left>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF058731"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF058731"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium">
+        <color rgb="FF058731"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF058731"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF058731"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,11 +733,9 @@
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="32.00390625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="36.57421875"/>
-    <col customWidth="1" min="4" max="4" style="1" width="36.28125"/>
-    <col customWidth="1" min="5" max="5" style="1" width="36.8515625"/>
-    <col min="6" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="36.57421875"/>
+    <col customWidth="1" min="3" max="3" style="1" width="36.28125"/>
+    <col min="4" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
@@ -631,11 +748,28 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="99.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="99.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -653,39 +787,104 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="32.00390625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="32.28125"/>
-    <col customWidth="1" min="4" max="4" style="1" width="36.57421875"/>
-    <col customWidth="1" min="5" max="5" style="1" width="41.57421875"/>
-    <col customWidth="1" min="6" max="6" style="1" width="36.28125"/>
-    <col customWidth="1" min="7" max="7" style="1" width="36.8515625"/>
-    <col min="8" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="1" width="27.140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="32.28125"/>
+    <col customWidth="1" min="3" max="3" style="1" width="68.7109375"/>
+    <col customWidth="1" min="4" max="4" style="1" width="61.8515625"/>
+    <col customWidth="1" min="5" max="5" style="1" width="36.28125"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
+    <row r="1" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" ht="57.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/HARDWARE_INFO.xlsx
+++ b/SRC/HARDWARE_INFO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t xml:space="preserve">Open Hardware Monitor</t>
   </si>
   <si>
-    <t>Undeclared</t>
+    <t xml:space="preserve">未声明 (Freeware)</t>
   </si>
   <si>
     <t>github.com/HardwareMonitor/OpenHardwareMonitor</t>

--- a/SRC/HARDWARE_INFO.xlsx
+++ b/SRC/HARDWARE_INFO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>软件名称</t>
   </si>
@@ -28,6 +28,9 @@
     <t>支持平台</t>
   </si>
   <si>
+    <t>开源替代</t>
+  </si>
+  <si>
     <t>CPU-Z</t>
   </si>
   <si>
@@ -37,10 +40,18 @@
     <t>Windows</t>
   </si>
   <si>
+    <t xml:space="preserve">Windows 上暂无软件可替代其所有功能，实时监控硬件信息的开源软件有 Libre Hardware Monitor 和 Open Hardware Monitor。
+Linux 上有 CPU-X 和 HardInfo2。</t>
+  </si>
+  <si>
     <t>GPU-Z</t>
   </si>
   <si>
     <t>techpowerup.com/gpuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 上暂无软件可替代其所有功能。
+Linux 上有 HardInfo2。</t>
   </si>
   <si>
     <t>许可证</t>
@@ -205,13 +216,19 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,7 +752,8 @@
     <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
     <col customWidth="1" min="2" max="2" style="1" width="36.57421875"/>
     <col customWidth="1" min="3" max="3" style="1" width="36.28125"/>
-    <col min="4" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="44.57421875"/>
+    <col min="5" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
@@ -748,28 +766,36 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="99.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="99.75" customHeight="1">
+    <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -802,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -817,74 +843,74 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="57.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+      <c r="A4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/HARDWARE_INFO.xlsx
+++ b/SRC/HARDWARE_INFO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
@@ -88,7 +88,7 @@
   </si>
   <si>
     <t xml:space="preserve">Libre Hardware Monitor
-(Fork of
+(分叉自
 Open Hardware Monitor)</t>
   </si>
   <si>

--- a/SRC/HARDWARE_INFO.xlsx
+++ b/SRC/HARDWARE_INFO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>软件名称</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>开源替代</t>
+  </si>
+  <si>
+    <t>附加信息</t>
   </si>
   <si>
     <t>CPU-Z</t>
@@ -54,6 +57,9 @@
 Linux 上有 HardInfo2。</t>
   </si>
   <si>
+    <t xml:space="preserve">原软件在分发时使用了 UPX 压缩打包</t>
+  </si>
+  <si>
     <t>许可证</t>
   </si>
   <si>
@@ -63,7 +69,7 @@
     <t>HardInfo2</t>
   </si>
   <si>
-    <t>GPLv2+、LGPLv2.1、GPLv3</t>
+    <t>GPLv2、LGPLv2.1、GPLv3</t>
   </si>
   <si>
     <t>hardinfo2.org</t>
@@ -73,6 +79,9 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支持查看各类硬件信息和 Benchmark</t>
   </si>
   <si>
     <t>CPU-X</t>
@@ -108,6 +117,21 @@
   </si>
   <si>
     <t>github.com/HardwareMonitor/OpenHardwareMonitor</t>
+  </si>
+  <si>
+    <t>LiteMonitor</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>litemonitor.cn</t>
+  </si>
+  <si>
+    <t>github.com/Diorser/LiteMonitor</t>
+  </si>
+  <si>
+    <t>支持桌面组件定制功能</t>
   </si>
 </sst>
 </file>
@@ -753,7 +777,8 @@
     <col customWidth="1" min="2" max="2" style="1" width="36.57421875"/>
     <col customWidth="1" min="3" max="3" style="1" width="36.28125"/>
     <col customWidth="1" min="4" max="4" style="1" width="44.57421875"/>
-    <col min="5" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="5" max="5" style="1" width="48.57421875"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
@@ -769,33 +794,39 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="99.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +840,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -820,7 +851,8 @@
     <col customWidth="1" min="3" max="3" style="1" width="68.7109375"/>
     <col customWidth="1" min="4" max="4" style="1" width="61.8515625"/>
     <col customWidth="1" min="5" max="5" style="1" width="36.28125"/>
-    <col min="6" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="6" max="6" style="1" width="49.00390625"/>
+    <col min="7" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="45" customHeight="1">
@@ -828,89 +860,113 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="57.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
